--- a/REGULAR/OJT/NEW DONE/LUNA, ROBERT.xlsx
+++ b/REGULAR/OJT/NEW DONE/LUNA, ROBERT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARIZ-PC\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA053EF-BB70-434E-B75C-4C04D3F1F5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE521AA-6C01-4365-99AC-2F5A6603ADFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,28 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -259,6 +248,36 @@
   </si>
   <si>
     <t>6/27-7/17/2016</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>TOPS</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>MOURNING 1/27,30</t>
   </si>
 </sst>
 </file>
@@ -495,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,9 +634,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,6 +648,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,12 +691,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2642,7 +2658,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2659,7 +2675,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K278" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K296" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3025,7 +3041,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3037,87 +3053,93 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K278"/>
+  <dimension ref="A2:K296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4245" topLeftCell="A209" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A213" sqref="A213"/>
+      <pane ySplit="4248" topLeftCell="A274" activePane="bottomLeft"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="58">
+        <v>37378</v>
+      </c>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3125,7 +3147,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3138,24 +3160,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3199,7 +3221,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.708</v>
+        <v>204.45799999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3209,13 +3231,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>206.708</v>
+        <v>285.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="20"/>
@@ -3236,124 +3258,132 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
-        <v>37257</v>
+        <v>37378</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>1.208</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.208</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
-        <v>37288</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="39"/>
+        <v>37408</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="42"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H12" s="39"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="42"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="12"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <v>37316</v>
+        <v>37438</v>
       </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <v>37347</v>
+        <v>37469</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D14" s="39"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
-        <v>37377</v>
+        <v>37500</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="13">
-        <v>1.208</v>
+      <c r="C15" s="41">
+        <v>1.25</v>
       </c>
       <c r="D15" s="39"/>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.208</v>
+        <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
-        <v>37408</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="42">
-        <v>1.25</v>
-      </c>
-      <c r="D16" s="43"/>
+        <v>37530</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="39"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="43"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="39"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
-        <v>37438</v>
+        <v>37561</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <v>1.25</v>
       </c>
       <c r="D17" s="39"/>
@@ -3368,12 +3398,12 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <v>37469</v>
+        <v>37591</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>1.25</v>
       </c>
       <c r="D18" s="39"/>
@@ -3388,32 +3418,34 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
-        <v>37500</v>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
+        <v>46</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="42">
-        <v>1.25</v>
-      </c>
+      <c r="C19" s="13"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F19" s="20"/>
-      <c r="G19" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G19" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H19" s="39"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="42">
+      <c r="C20" s="13">
         <v>1.25</v>
       </c>
       <c r="D20" s="39"/>
@@ -3428,12 +3460,12 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="42">
+      <c r="C21" s="13">
         <v>1.25</v>
       </c>
       <c r="D21" s="39"/>
@@ -3448,12 +3480,14 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <v>37591</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="42">
+        <v>37681</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="13">
         <v>1.25</v>
       </c>
       <c r="D22" s="39"/>
@@ -3463,36 +3497,36 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="39">
+        <v>1</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>46</v>
-      </c>
+      <c r="K22" s="48">
+        <v>37683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H23" s="39"/>
-      <c r="I23" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -3510,9 +3544,9 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -3530,13 +3564,11 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <v>37681</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>47</v>
-      </c>
+        <v>37773</v>
+      </c>
+      <c r="B26" s="20"/>
       <c r="C26" s="13">
         <v>1.25</v>
       </c>
@@ -3547,36 +3579,34 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H26" s="39">
-        <v>1</v>
-      </c>
+      <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="61">
-        <v>37683</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
+        <v>37803</v>
+      </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <v>37712</v>
+        <v>37834</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -3594,9 +3624,9 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <v>37742</v>
+        <v>37865</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
@@ -3614,9 +3644,9 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>37773</v>
+        <v>37895</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -3634,9 +3664,9 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>37803</v>
+        <v>37926</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -3654,15 +3684,19 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>37834</v>
-      </c>
-      <c r="B32" s="20"/>
+        <v>37956</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
-      <c r="D32" s="39"/>
+      <c r="D32" s="39">
+        <v>5</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
@@ -3674,29 +3708,31 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40">
-        <v>37865</v>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="B33" s="20"/>
-      <c r="C33" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C33" s="13"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H33" s="39"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -3714,9 +3750,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -3734,19 +3770,15 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <v>37956</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>38047</v>
+      </c>
+      <c r="B36" s="20"/>
       <c r="C36" s="13">
         <v>1.25</v>
       </c>
-      <c r="D36" s="39">
-        <v>5</v>
-      </c>
+      <c r="D36" s="39"/>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13">
@@ -3758,31 +3790,29 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
-        <v>45</v>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="40">
+        <v>38078</v>
       </c>
       <c r="B37" s="20"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D37" s="39"/>
-      <c r="E37" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H37" s="39"/>
-      <c r="I37" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>37987</v>
+        <v>38108</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -3800,9 +3830,9 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <v>38018</v>
+        <v>38139</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -3820,9 +3850,9 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>38047</v>
+        <v>38169</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -3840,9 +3870,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>38078</v>
+        <v>38200</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -3860,9 +3890,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>38108</v>
+        <v>38231</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -3880,9 +3910,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>38139</v>
+        <v>38261</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -3900,9 +3930,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>38169</v>
+        <v>38292</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -3920,15 +3950,19 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>38200</v>
-      </c>
-      <c r="B45" s="20"/>
+        <v>38322</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
-      <c r="D45" s="39"/>
+      <c r="D45" s="39">
+        <v>5</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
@@ -3940,29 +3974,31 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="40">
-        <v>38231</v>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="47" t="s">
+        <v>44</v>
       </c>
       <c r="B46" s="20"/>
-      <c r="C46" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C46" s="13"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F46" s="20"/>
-      <c r="G46" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H46" s="39"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -3980,9 +4016,9 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4000,19 +4036,15 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>38322</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>38412</v>
+      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
-      <c r="D49" s="39">
-        <v>5</v>
-      </c>
+      <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -4024,31 +4056,29 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="60" t="s">
-        <v>44</v>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="40">
+        <v>38443</v>
       </c>
       <c r="B50" s="20"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="39"/>
-      <c r="E50" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
-      <c r="I50" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>38353</v>
+        <v>38473</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -4066,9 +4096,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>38384</v>
+        <v>38504</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -4086,9 +4116,9 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>38412</v>
+        <v>38534</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4106,9 +4136,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>38443</v>
+        <v>38565</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -4126,9 +4156,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>38473</v>
+        <v>38596</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -4146,9 +4176,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>38504</v>
+        <v>38626</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4166,9 +4196,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>38534</v>
+        <v>38657</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4186,15 +4216,19 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>38565</v>
-      </c>
-      <c r="B58" s="20"/>
+        <v>38687</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C58" s="13">
         <v>1.25</v>
       </c>
-      <c r="D58" s="39"/>
+      <c r="D58" s="39">
+        <v>5</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
@@ -4206,29 +4240,31 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
-        <v>38596</v>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="47" t="s">
+        <v>53</v>
       </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C59" s="13"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F59" s="20"/>
-      <c r="G59" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H59" s="39"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4246,9 +4282,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4266,19 +4302,15 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>38687</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>38777</v>
+      </c>
+      <c r="B62" s="20"/>
       <c r="C62" s="13">
         <v>1.25</v>
       </c>
-      <c r="D62" s="39">
-        <v>5</v>
-      </c>
+      <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13">
@@ -4290,31 +4322,29 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="60" t="s">
-        <v>53</v>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="40">
+        <v>38808</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
-      <c r="E63" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
-      <c r="I63" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I63" s="9"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>38718</v>
+        <v>38838</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
@@ -4332,9 +4362,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>38749</v>
+        <v>38869</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4352,9 +4382,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>38777</v>
+        <v>38899</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4372,9 +4402,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>38808</v>
+        <v>38930</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4392,9 +4422,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>38838</v>
+        <v>38961</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -4412,9 +4442,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>38869</v>
+        <v>38991</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4432,9 +4462,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>38899</v>
+        <v>39022</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -4452,15 +4482,19 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>38930</v>
-      </c>
-      <c r="B71" s="20"/>
+        <v>39052</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>5</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -4472,29 +4506,31 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
-        <v>38961</v>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="47" t="s">
+        <v>52</v>
       </c>
       <c r="B72" s="20"/>
-      <c r="C72" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C72" s="13"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F72" s="20"/>
-      <c r="G72" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H72" s="39"/>
-      <c r="I72" s="9"/>
+      <c r="I72" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -4512,9 +4548,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13">
@@ -4532,19 +4568,15 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>39052</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>39142</v>
+      </c>
+      <c r="B75" s="20"/>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
-      <c r="D75" s="39">
-        <v>5</v>
-      </c>
+      <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13">
@@ -4556,31 +4588,29 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="60" t="s">
-        <v>52</v>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40">
+        <v>39173</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
-      <c r="E76" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
-      <c r="I76" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>39083</v>
+        <v>39203</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4598,9 +4628,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>39114</v>
+        <v>39234</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4618,9 +4648,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>39142</v>
+        <v>39264</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4638,9 +4668,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>39173</v>
+        <v>39295</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4658,9 +4688,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>39203</v>
+        <v>39326</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4678,9 +4708,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>39234</v>
+        <v>39356</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4698,9 +4728,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>39264</v>
+        <v>39387</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -4718,15 +4748,19 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>39295</v>
-      </c>
-      <c r="B84" s="20"/>
+        <v>39417</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C84" s="13">
         <v>1.25</v>
       </c>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>5</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13">
@@ -4738,29 +4772,31 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40">
-        <v>39326</v>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C85" s="13"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F85" s="20"/>
-      <c r="G85" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H85" s="39"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -4778,9 +4814,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -4798,19 +4834,15 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>39417</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>39508</v>
+      </c>
+      <c r="B88" s="20"/>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
-      <c r="D88" s="39">
-        <v>5</v>
-      </c>
+      <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13">
@@ -4822,31 +4854,29 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="60" t="s">
-        <v>51</v>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>39539</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
-      <c r="E89" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
-      <c r="I89" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>39448</v>
+        <v>39569</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13">
@@ -4864,9 +4894,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>39479</v>
+        <v>39600</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -4884,9 +4914,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>39508</v>
+        <v>39630</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13">
@@ -4904,9 +4934,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>39539</v>
+        <v>39661</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13">
@@ -4924,11 +4954,13 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>39569</v>
-      </c>
-      <c r="B94" s="20"/>
+        <v>39692</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C94" s="13">
         <v>1.25</v>
       </c>
@@ -4939,14 +4971,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H94" s="39"/>
+      <c r="H94" s="39">
+        <v>10</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>39600</v>
+        <v>39722</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -4964,9 +5000,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>39630</v>
+        <v>39753</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -4984,15 +5020,19 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>39661</v>
-      </c>
-      <c r="B97" s="20"/>
+        <v>39783</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C97" s="13">
         <v>1.25</v>
       </c>
-      <c r="D97" s="39"/>
+      <c r="D97" s="39">
+        <v>5</v>
+      </c>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13">
@@ -5004,35 +5044,31 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>39692</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C98" s="13">
-        <v>1.25</v>
-      </c>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="13"/>
       <c r="D98" s="39"/>
-      <c r="E98" s="9"/>
+      <c r="E98" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F98" s="20"/>
-      <c r="G98" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H98" s="39">
-        <v>10</v>
-      </c>
-      <c r="I98" s="9"/>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="39"/>
+      <c r="I98" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J98" s="11"/>
-      <c r="K98" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="20"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -5050,9 +5086,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -5070,19 +5106,17 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C101" s="13">
         <v>1.25</v>
       </c>
-      <c r="D101" s="39">
-        <v>5</v>
-      </c>
+      <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13">
@@ -5092,33 +5126,33 @@
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="60" t="s">
-        <v>50</v>
+      <c r="K101" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>39904</v>
       </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
-      <c r="E102" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39"/>
-      <c r="I102" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I102" s="9"/>
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>39814</v>
+        <v>39934</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13">
@@ -5136,9 +5170,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>39845</v>
+        <v>39965</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13">
@@ -5156,13 +5190,11 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>39873</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>39995</v>
+      </c>
+      <c r="B105" s="20"/>
       <c r="C105" s="13">
         <v>1.25</v>
       </c>
@@ -5176,13 +5208,11 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="20"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>39904</v>
+        <v>40026</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
@@ -5200,9 +5230,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>39934</v>
+        <v>40057</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13">
@@ -5220,9 +5250,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>39965</v>
+        <v>40087</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
@@ -5240,9 +5270,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>39995</v>
+        <v>40118</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -5260,15 +5290,19 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>40026</v>
-      </c>
-      <c r="B110" s="20"/>
+        <v>40148</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C110" s="13">
         <v>1.25</v>
       </c>
-      <c r="D110" s="39"/>
+      <c r="D110" s="39">
+        <v>5</v>
+      </c>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
       <c r="G110" s="13">
@@ -5280,29 +5314,31 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40">
-        <v>40057</v>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C111" s="13"/>
       <c r="D111" s="39"/>
-      <c r="E111" s="9"/>
+      <c r="E111" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F111" s="20"/>
-      <c r="G111" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H111" s="39"/>
-      <c r="I111" s="9"/>
+      <c r="I111" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -5320,9 +5356,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -5340,19 +5376,15 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>40148</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>40238</v>
+      </c>
+      <c r="B114" s="20"/>
       <c r="C114" s="13">
         <v>1.25</v>
       </c>
-      <c r="D114" s="39">
-        <v>5</v>
-      </c>
+      <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
       <c r="G114" s="13">
@@ -5364,31 +5396,29 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="60" t="s">
-        <v>65</v>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
+        <v>40269</v>
       </c>
       <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
-      <c r="E115" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H115" s="39"/>
-      <c r="I115" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I115" s="9"/>
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>40179</v>
+        <v>40299</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13">
@@ -5406,9 +5436,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>40210</v>
+        <v>40330</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13">
@@ -5426,11 +5456,13 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>40238</v>
-      </c>
-      <c r="B118" s="20"/>
+        <v>40360</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C118" s="13">
         <v>1.25</v>
       </c>
@@ -5444,11 +5476,13 @@
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>40269</v>
+        <v>40391</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13">
@@ -5466,9 +5500,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>40299</v>
+        <v>40422</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -5486,9 +5520,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>40330</v>
+        <v>40452</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13">
@@ -5506,13 +5540,11 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>40360</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>40483</v>
+      </c>
+      <c r="B122" s="20"/>
       <c r="C122" s="13">
         <v>1.25</v>
       </c>
@@ -5526,19 +5558,21 @@
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K122" s="20"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>40391</v>
-      </c>
-      <c r="B123" s="20"/>
+        <v>40513</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C123" s="13">
         <v>1.25</v>
       </c>
-      <c r="D123" s="39"/>
+      <c r="D123" s="39">
+        <v>5</v>
+      </c>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
       <c r="G123" s="13">
@@ -5550,29 +5584,31 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40">
-        <v>40422</v>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="47" t="s">
+        <v>64</v>
       </c>
       <c r="B124" s="20"/>
-      <c r="C124" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C124" s="13"/>
       <c r="D124" s="39"/>
-      <c r="E124" s="9"/>
+      <c r="E124" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F124" s="20"/>
-      <c r="G124" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G124" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H124" s="39"/>
-      <c r="I124" s="9"/>
+      <c r="I124" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -5590,9 +5626,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13">
@@ -5610,19 +5646,15 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>40513</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>40603</v>
+      </c>
+      <c r="B127" s="20"/>
       <c r="C127" s="13">
         <v>1.25</v>
       </c>
-      <c r="D127" s="39">
-        <v>5</v>
-      </c>
+      <c r="D127" s="39"/>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
       <c r="G127" s="13">
@@ -5634,31 +5666,29 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="60" t="s">
-        <v>64</v>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="40">
+        <v>40634</v>
       </c>
       <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
+      <c r="C128" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D128" s="39"/>
-      <c r="E128" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E128" s="9"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G128" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H128" s="39"/>
-      <c r="I128" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I128" s="9"/>
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>40544</v>
+        <v>40664</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13">
@@ -5676,9 +5706,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>40575</v>
+        <v>40695</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -5696,11 +5726,13 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>40603</v>
-      </c>
-      <c r="B131" s="20"/>
+        <v>40725</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C131" s="13">
         <v>1.25</v>
       </c>
@@ -5714,31 +5746,35 @@
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40">
-        <v>40634</v>
-      </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D132" s="39"/>
+      <c r="K131" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40"/>
+      <c r="B132" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39">
+        <v>13</v>
+      </c>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K132" s="48">
+        <v>40603</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -5756,9 +5792,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13">
@@ -5776,13 +5812,11 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>40725</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>40817</v>
+      </c>
+      <c r="B135" s="20"/>
       <c r="C135" s="13">
         <v>1.25</v>
       </c>
@@ -5796,75 +5830,77 @@
       <c r="H135" s="39"/>
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
-      <c r="K135" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
-      <c r="B136" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C136" s="13"/>
-      <c r="D136" s="39">
-        <v>13</v>
-      </c>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="40">
+        <v>40848</v>
+      </c>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G136" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H136" s="39"/>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="61">
-        <v>40603</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>40756</v>
+        <v>40878</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
         <v>1.25</v>
       </c>
       <c r="D137" s="39"/>
-      <c r="E137" s="9"/>
+      <c r="E137" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F137" s="20"/>
       <c r="G137" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H137" s="39"/>
-      <c r="I137" s="9"/>
+      <c r="I137" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40">
-        <v>40787</v>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="47" t="s">
+        <v>63</v>
       </c>
       <c r="B138" s="20"/>
-      <c r="C138" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C138" s="13"/>
       <c r="D138" s="39"/>
-      <c r="E138" s="9"/>
+      <c r="E138" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F138" s="20"/>
-      <c r="G138" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H138" s="39"/>
-      <c r="I138" s="9"/>
+      <c r="I138" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13">
@@ -5882,9 +5918,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
@@ -5902,55 +5938,49 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
         <v>1.25</v>
       </c>
       <c r="D141" s="39"/>
-      <c r="E141" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E141" s="9"/>
       <c r="F141" s="20"/>
       <c r="G141" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H141" s="39"/>
-      <c r="I141" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I141" s="9"/>
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="60" t="s">
-        <v>63</v>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="40">
+        <v>41000</v>
       </c>
       <c r="B142" s="20"/>
-      <c r="C142" s="13"/>
+      <c r="C142" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D142" s="39"/>
-      <c r="E142" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E142" s="9"/>
       <c r="F142" s="20"/>
-      <c r="G142" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G142" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H142" s="39"/>
-      <c r="I142" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I142" s="9"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <v>40909</v>
+        <v>41030</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
@@ -5968,9 +5998,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <v>40940</v>
+        <v>41061</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13">
@@ -5988,9 +6018,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
-        <v>40969</v>
+        <v>41091</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -6008,9 +6038,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <v>41000</v>
+        <v>41122</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13">
@@ -6028,9 +6058,9 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <v>41030</v>
+        <v>41153</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -6048,9 +6078,9 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <v>41061</v>
+        <v>41183</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13">
@@ -6068,9 +6098,9 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <v>41091</v>
+        <v>41214</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13">
@@ -6088,15 +6118,19 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <v>41122</v>
-      </c>
-      <c r="B150" s="20"/>
+        <v>41244</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C150" s="13">
         <v>1.25</v>
       </c>
-      <c r="D150" s="39"/>
+      <c r="D150" s="39">
+        <v>5</v>
+      </c>
       <c r="E150" s="9"/>
       <c r="F150" s="20"/>
       <c r="G150" s="13">
@@ -6108,29 +6142,31 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="40">
-        <v>41153</v>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="47" t="s">
+        <v>62</v>
       </c>
       <c r="B151" s="20"/>
-      <c r="C151" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C151" s="13"/>
       <c r="D151" s="39"/>
-      <c r="E151" s="9"/>
+      <c r="E151" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F151" s="20"/>
-      <c r="G151" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H151" s="39"/>
-      <c r="I151" s="9"/>
+      <c r="I151" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13">
@@ -6148,9 +6184,9 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13">
@@ -6168,19 +6204,15 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <v>41244</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>41334</v>
+      </c>
+      <c r="B154" s="20"/>
       <c r="C154" s="13">
         <v>1.25</v>
       </c>
-      <c r="D154" s="39">
-        <v>5</v>
-      </c>
+      <c r="D154" s="39"/>
       <c r="E154" s="9"/>
       <c r="F154" s="20"/>
       <c r="G154" s="13">
@@ -6192,31 +6224,29 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="60" t="s">
-        <v>62</v>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="40">
+        <v>41365</v>
       </c>
       <c r="B155" s="20"/>
-      <c r="C155" s="13"/>
+      <c r="C155" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D155" s="39"/>
-      <c r="E155" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E155" s="9"/>
       <c r="F155" s="20"/>
-      <c r="G155" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G155" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H155" s="39"/>
-      <c r="I155" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I155" s="9"/>
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
-        <v>41275</v>
+        <v>41395</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13">
@@ -6234,9 +6264,9 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <v>41306</v>
+        <v>41426</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -6254,9 +6284,9 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <v>41334</v>
+        <v>41456</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13">
@@ -6274,9 +6304,9 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <v>41365</v>
+        <v>41487</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
@@ -6294,9 +6324,9 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
-        <v>41395</v>
+        <v>41518</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13">
@@ -6314,9 +6344,9 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
-        <v>41426</v>
+        <v>41548</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13">
@@ -6334,9 +6364,9 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <v>41456</v>
+        <v>41579</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13">
@@ -6354,15 +6384,19 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
-        <v>41487</v>
-      </c>
-      <c r="B163" s="20"/>
+        <v>41609</v>
+      </c>
+      <c r="B163" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C163" s="13">
         <v>1.25</v>
       </c>
-      <c r="D163" s="39"/>
+      <c r="D163" s="39">
+        <v>5</v>
+      </c>
       <c r="E163" s="9"/>
       <c r="F163" s="20"/>
       <c r="G163" s="13">
@@ -6374,29 +6408,31 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="40">
-        <v>41518</v>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="B164" s="20"/>
-      <c r="C164" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C164" s="13"/>
       <c r="D164" s="39"/>
-      <c r="E164" s="9"/>
+      <c r="E164" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F164" s="20"/>
-      <c r="G164" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H164" s="39"/>
-      <c r="I164" s="9"/>
+      <c r="I164" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -6414,9 +6450,9 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13">
@@ -6434,19 +6470,15 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <v>41609</v>
-      </c>
-      <c r="B167" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>41699</v>
+      </c>
+      <c r="B167" s="20"/>
       <c r="C167" s="13">
         <v>1.25</v>
       </c>
-      <c r="D167" s="39">
-        <v>5</v>
-      </c>
+      <c r="D167" s="39"/>
       <c r="E167" s="9"/>
       <c r="F167" s="20"/>
       <c r="G167" s="13">
@@ -6458,31 +6490,29 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="60" t="s">
-        <v>61</v>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="40">
+        <v>41730</v>
       </c>
       <c r="B168" s="20"/>
-      <c r="C168" s="13"/>
+      <c r="C168" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D168" s="39"/>
-      <c r="E168" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E168" s="9"/>
       <c r="F168" s="20"/>
-      <c r="G168" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G168" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H168" s="39"/>
-      <c r="I168" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I168" s="9"/>
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <v>41640</v>
+        <v>41760</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13">
@@ -6500,9 +6530,9 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
-        <v>41671</v>
+        <v>41791</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -6520,9 +6550,9 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
-        <v>41699</v>
+        <v>41821</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13">
@@ -6540,9 +6570,9 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <v>41730</v>
+        <v>41852</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13">
@@ -6560,9 +6590,9 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <v>41760</v>
+        <v>41883</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13">
@@ -6580,9 +6610,9 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <v>41791</v>
+        <v>41913</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13">
@@ -6600,9 +6630,9 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
-        <v>41821</v>
+        <v>41944</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -6620,15 +6650,19 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
-        <v>41852</v>
-      </c>
-      <c r="B176" s="20"/>
+        <v>41974</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C176" s="13">
         <v>1.25</v>
       </c>
-      <c r="D176" s="39"/>
+      <c r="D176" s="39">
+        <v>5</v>
+      </c>
       <c r="E176" s="9"/>
       <c r="F176" s="20"/>
       <c r="G176" s="13">
@@ -6640,29 +6674,31 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="40">
-        <v>41883</v>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="B177" s="20"/>
-      <c r="C177" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C177" s="13"/>
       <c r="D177" s="39"/>
-      <c r="E177" s="9"/>
+      <c r="E177" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F177" s="20"/>
-      <c r="G177" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G177" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H177" s="39"/>
-      <c r="I177" s="9"/>
+      <c r="I177" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13">
@@ -6680,9 +6716,9 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13">
@@ -6700,19 +6736,15 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <v>41974</v>
-      </c>
-      <c r="B180" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>42064</v>
+      </c>
+      <c r="B180" s="20"/>
       <c r="C180" s="13">
         <v>1.25</v>
       </c>
-      <c r="D180" s="39">
-        <v>5</v>
-      </c>
+      <c r="D180" s="39"/>
       <c r="E180" s="9"/>
       <c r="F180" s="20"/>
       <c r="G180" s="13">
@@ -6724,31 +6756,29 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="60" t="s">
-        <v>60</v>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="40">
+        <v>42095</v>
       </c>
       <c r="B181" s="20"/>
-      <c r="C181" s="13"/>
+      <c r="C181" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D181" s="39"/>
-      <c r="E181" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E181" s="9"/>
       <c r="F181" s="20"/>
-      <c r="G181" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G181" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H181" s="39"/>
-      <c r="I181" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I181" s="9"/>
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <v>42005</v>
+        <v>42125</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13">
@@ -6766,9 +6796,9 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <v>42036</v>
+        <v>42156</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13">
@@ -6786,9 +6816,9 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
-        <v>42064</v>
+        <v>42186</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13">
@@ -6806,9 +6836,9 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
-        <v>42095</v>
+        <v>42217</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13">
@@ -6826,9 +6856,9 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <v>42125</v>
+        <v>42248</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13">
@@ -6846,9 +6876,9 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
-        <v>42156</v>
+        <v>42278</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13">
@@ -6866,9 +6896,9 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
-        <v>42186</v>
+        <v>42309</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13">
@@ -6886,15 +6916,19 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
-        <v>42217</v>
-      </c>
-      <c r="B189" s="20"/>
+        <v>42339</v>
+      </c>
+      <c r="B189" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C189" s="13">
         <v>1.25</v>
       </c>
-      <c r="D189" s="39"/>
+      <c r="D189" s="39">
+        <v>5</v>
+      </c>
       <c r="E189" s="9"/>
       <c r="F189" s="20"/>
       <c r="G189" s="13">
@@ -6906,29 +6940,31 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="40">
-        <v>42248</v>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="47" t="s">
+        <v>59</v>
       </c>
       <c r="B190" s="20"/>
-      <c r="C190" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C190" s="13"/>
       <c r="D190" s="39"/>
-      <c r="E190" s="9"/>
+      <c r="E190" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F190" s="20"/>
-      <c r="G190" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G190" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H190" s="39"/>
-      <c r="I190" s="9"/>
+      <c r="I190" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13">
@@ -6946,9 +6982,9 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13">
@@ -6966,19 +7002,15 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <v>42339</v>
-      </c>
-      <c r="B193" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>42430</v>
+      </c>
+      <c r="B193" s="20"/>
       <c r="C193" s="13">
         <v>1.25</v>
       </c>
-      <c r="D193" s="39">
-        <v>5</v>
-      </c>
+      <c r="D193" s="39"/>
       <c r="E193" s="9"/>
       <c r="F193" s="20"/>
       <c r="G193" s="13">
@@ -6990,53 +7022,57 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="60" t="s">
-        <v>59</v>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="40">
+        <v>42461</v>
       </c>
       <c r="B194" s="20"/>
-      <c r="C194" s="13"/>
+      <c r="C194" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D194" s="39"/>
-      <c r="E194" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E194" s="9"/>
       <c r="F194" s="20"/>
-      <c r="G194" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G194" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H194" s="39"/>
-      <c r="I194" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I194" s="9"/>
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
-        <v>42370</v>
+        <v>42491</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13">
         <v>1.25</v>
       </c>
       <c r="D195" s="39"/>
-      <c r="E195" s="9"/>
+      <c r="E195" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F195" s="20"/>
       <c r="G195" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H195" s="39"/>
-      <c r="I195" s="9"/>
+      <c r="I195" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <v>42401</v>
-      </c>
-      <c r="B196" s="20"/>
+        <v>42522</v>
+      </c>
+      <c r="B196" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C196" s="13">
         <v>1.25</v>
       </c>
@@ -7047,14 +7083,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H196" s="39"/>
+      <c r="H196" s="39">
+        <v>16</v>
+      </c>
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
-      <c r="K196" s="20"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K196" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
-        <v>42430</v>
+        <v>42552</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -7072,9 +7112,9 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
-        <v>42461</v>
+        <v>42583</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13">
@@ -7092,37 +7132,31 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
-        <v>42491</v>
+        <v>42614</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13">
         <v>1.25</v>
       </c>
       <c r="D199" s="39"/>
-      <c r="E199" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E199" s="9"/>
       <c r="F199" s="20"/>
       <c r="G199" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H199" s="39"/>
-      <c r="I199" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I199" s="9"/>
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
-        <v>42522</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>69</v>
-      </c>
+        <v>42644</v>
+      </c>
+      <c r="B200" s="20"/>
       <c r="C200" s="13">
         <v>1.25</v>
       </c>
@@ -7133,18 +7167,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H200" s="39">
-        <v>16</v>
-      </c>
+      <c r="H200" s="39"/>
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
-      <c r="K200" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K200" s="20"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
-        <v>42552</v>
+        <v>42675</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13">
@@ -7162,15 +7192,19 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
-        <v>42583</v>
-      </c>
-      <c r="B202" s="20"/>
+        <v>42705</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C202" s="13">
         <v>1.25</v>
       </c>
-      <c r="D202" s="39"/>
+      <c r="D202" s="39">
+        <v>5</v>
+      </c>
       <c r="E202" s="9"/>
       <c r="F202" s="20"/>
       <c r="G202" s="13">
@@ -7182,29 +7216,31 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="40">
-        <v>42614</v>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="47" t="s">
+        <v>58</v>
       </c>
       <c r="B203" s="20"/>
-      <c r="C203" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C203" s="13"/>
       <c r="D203" s="39"/>
-      <c r="E203" s="9"/>
+      <c r="E203" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F203" s="20"/>
-      <c r="G203" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G203" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H203" s="39"/>
-      <c r="I203" s="9"/>
+      <c r="I203" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13">
@@ -7222,9 +7258,9 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13">
@@ -7242,9 +7278,9 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13">
@@ -7262,31 +7298,29 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="60" t="s">
-        <v>58</v>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="40">
+        <v>42826</v>
       </c>
       <c r="B207" s="20"/>
-      <c r="C207" s="13"/>
+      <c r="C207" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D207" s="39"/>
-      <c r="E207" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E207" s="9"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G207" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H207" s="39"/>
-      <c r="I207" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I207" s="9"/>
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
-        <v>42736</v>
+        <v>42856</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13">
@@ -7304,9 +7338,9 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
-        <v>42767</v>
+        <v>42887</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -7324,9 +7358,9 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <v>42795</v>
+        <v>42917</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13">
@@ -7344,9 +7378,9 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <v>42826</v>
+        <v>42948</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13">
@@ -7364,9 +7398,9 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
-        <v>42856</v>
+        <v>42979</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13">
@@ -7384,9 +7418,9 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
-        <v>42887</v>
+        <v>43009</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13">
@@ -7404,9 +7438,9 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
-        <v>42917</v>
+        <v>43040</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13">
@@ -7424,15 +7458,19 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
-        <v>42948</v>
-      </c>
-      <c r="B215" s="20"/>
+        <v>43070</v>
+      </c>
+      <c r="B215" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C215" s="13">
         <v>1.25</v>
       </c>
-      <c r="D215" s="39"/>
+      <c r="D215" s="39">
+        <v>5</v>
+      </c>
       <c r="E215" s="9"/>
       <c r="F215" s="20"/>
       <c r="G215" s="13">
@@ -7444,29 +7482,27 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="40">
-        <v>42979</v>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="47" t="s">
+        <v>74</v>
       </c>
       <c r="B216" s="20"/>
-      <c r="C216" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C216" s="13"/>
       <c r="D216" s="39"/>
       <c r="E216" s="9"/>
       <c r="F216" s="20"/>
-      <c r="G216" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G216" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H216" s="39"/>
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13">
@@ -7484,9 +7520,9 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13">
@@ -7504,168 +7540,214 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="40"/>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="40">
+        <v>43160</v>
+      </c>
       <c r="B219" s="20"/>
-      <c r="C219" s="13"/>
+      <c r="C219" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D219" s="39"/>
       <c r="E219" s="9"/>
       <c r="F219" s="20"/>
-      <c r="G219" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G219" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H219" s="39"/>
       <c r="I219" s="9"/>
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="40"/>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="40">
+        <v>43191</v>
+      </c>
       <c r="B220" s="20"/>
-      <c r="C220" s="13"/>
+      <c r="C220" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D220" s="39"/>
       <c r="E220" s="9"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G220" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H220" s="39"/>
       <c r="I220" s="9"/>
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="40"/>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="40">
+        <v>43221</v>
+      </c>
       <c r="B221" s="20"/>
-      <c r="C221" s="13"/>
+      <c r="C221" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D221" s="39"/>
       <c r="E221" s="9"/>
       <c r="F221" s="20"/>
-      <c r="G221" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G221" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H221" s="39"/>
       <c r="I221" s="9"/>
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="40"/>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="40">
+        <v>43252</v>
+      </c>
       <c r="B222" s="20"/>
-      <c r="C222" s="13"/>
+      <c r="C222" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D222" s="39"/>
       <c r="E222" s="9"/>
       <c r="F222" s="20"/>
-      <c r="G222" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G222" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H222" s="39"/>
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="40"/>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="40">
+        <v>43282</v>
+      </c>
       <c r="B223" s="20"/>
-      <c r="C223" s="13"/>
+      <c r="C223" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D223" s="39"/>
       <c r="E223" s="9"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G223" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H223" s="39"/>
       <c r="I223" s="9"/>
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="40"/>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="40">
+        <v>43313</v>
+      </c>
       <c r="B224" s="20"/>
-      <c r="C224" s="13"/>
+      <c r="C224" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D224" s="39"/>
       <c r="E224" s="9"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G224" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H224" s="39"/>
       <c r="I224" s="9"/>
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="40"/>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="40">
+        <v>43344</v>
+      </c>
       <c r="B225" s="20"/>
-      <c r="C225" s="13"/>
+      <c r="C225" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D225" s="39"/>
       <c r="E225" s="9"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G225" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H225" s="39"/>
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="40"/>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="40">
+        <v>43374</v>
+      </c>
       <c r="B226" s="20"/>
-      <c r="C226" s="13"/>
+      <c r="C226" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D226" s="39"/>
       <c r="E226" s="9"/>
       <c r="F226" s="20"/>
-      <c r="G226" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G226" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H226" s="39"/>
       <c r="I226" s="9"/>
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="40"/>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="40">
+        <v>43405</v>
+      </c>
       <c r="B227" s="20"/>
-      <c r="C227" s="13"/>
+      <c r="C227" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D227" s="39"/>
       <c r="E227" s="9"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G227" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H227" s="39"/>
       <c r="I227" s="9"/>
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="40"/>
-      <c r="B228" s="20"/>
-      <c r="C228" s="13"/>
-      <c r="D228" s="39"/>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="40">
+        <v>43435</v>
+      </c>
+      <c r="B228" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D228" s="39">
+        <v>5</v>
+      </c>
       <c r="E228" s="9"/>
       <c r="F228" s="20"/>
-      <c r="G228" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G228" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H228" s="39"/>
       <c r="I228" s="9"/>
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="40"/>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="47" t="s">
+        <v>75</v>
+      </c>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
       <c r="D229" s="39"/>
@@ -7680,200 +7762,254 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="40"/>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="40">
+        <v>43466</v>
+      </c>
       <c r="B230" s="20"/>
-      <c r="C230" s="13"/>
+      <c r="C230" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D230" s="39"/>
       <c r="E230" s="9"/>
       <c r="F230" s="20"/>
-      <c r="G230" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G230" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H230" s="39"/>
       <c r="I230" s="9"/>
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="40"/>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="40">
+        <v>43497</v>
+      </c>
       <c r="B231" s="20"/>
-      <c r="C231" s="13"/>
+      <c r="C231" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D231" s="39"/>
       <c r="E231" s="9"/>
       <c r="F231" s="20"/>
-      <c r="G231" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G231" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H231" s="39"/>
       <c r="I231" s="9"/>
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="40"/>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="40">
+        <v>43525</v>
+      </c>
       <c r="B232" s="20"/>
-      <c r="C232" s="13"/>
+      <c r="C232" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D232" s="39"/>
       <c r="E232" s="9"/>
       <c r="F232" s="20"/>
-      <c r="G232" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G232" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H232" s="39"/>
       <c r="I232" s="9"/>
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="40"/>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="40">
+        <v>43556</v>
+      </c>
       <c r="B233" s="20"/>
-      <c r="C233" s="13"/>
+      <c r="C233" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D233" s="39"/>
       <c r="E233" s="9"/>
       <c r="F233" s="20"/>
-      <c r="G233" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G233" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H233" s="39"/>
       <c r="I233" s="9"/>
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="40"/>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="40">
+        <v>43586</v>
+      </c>
       <c r="B234" s="20"/>
-      <c r="C234" s="13"/>
+      <c r="C234" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D234" s="39"/>
       <c r="E234" s="9"/>
       <c r="F234" s="20"/>
-      <c r="G234" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G234" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H234" s="39"/>
       <c r="I234" s="9"/>
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="40"/>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="40">
+        <v>43617</v>
+      </c>
       <c r="B235" s="20"/>
-      <c r="C235" s="13"/>
+      <c r="C235" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D235" s="39"/>
       <c r="E235" s="9"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G235" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H235" s="39"/>
       <c r="I235" s="9"/>
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="40"/>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="40">
+        <v>43647</v>
+      </c>
       <c r="B236" s="20"/>
-      <c r="C236" s="13"/>
+      <c r="C236" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D236" s="39"/>
       <c r="E236" s="9"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G236" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H236" s="39"/>
       <c r="I236" s="9"/>
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="40"/>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="40">
+        <v>43678</v>
+      </c>
       <c r="B237" s="20"/>
-      <c r="C237" s="13"/>
+      <c r="C237" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D237" s="39"/>
       <c r="E237" s="9"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G237" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H237" s="39"/>
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="40"/>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="40">
+        <v>43709</v>
+      </c>
       <c r="B238" s="20"/>
-      <c r="C238" s="13"/>
+      <c r="C238" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D238" s="39"/>
       <c r="E238" s="9"/>
       <c r="F238" s="20"/>
-      <c r="G238" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G238" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H238" s="39"/>
       <c r="I238" s="9"/>
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="40"/>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="40">
+        <v>43739</v>
+      </c>
       <c r="B239" s="20"/>
-      <c r="C239" s="13"/>
+      <c r="C239" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D239" s="39"/>
       <c r="E239" s="9"/>
       <c r="F239" s="20"/>
-      <c r="G239" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G239" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H239" s="39"/>
       <c r="I239" s="9"/>
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="40"/>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="40">
+        <v>43770</v>
+      </c>
       <c r="B240" s="20"/>
-      <c r="C240" s="13"/>
+      <c r="C240" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D240" s="39"/>
       <c r="E240" s="9"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G240" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H240" s="39"/>
       <c r="I240" s="9"/>
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="40"/>
-      <c r="B241" s="20"/>
-      <c r="C241" s="13"/>
-      <c r="D241" s="39"/>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="40">
+        <v>43800</v>
+      </c>
+      <c r="B241" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C241" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D241" s="39">
+        <v>5</v>
+      </c>
       <c r="E241" s="9"/>
       <c r="F241" s="20"/>
-      <c r="G241" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G241" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H241" s="39"/>
       <c r="I241" s="9"/>
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="40"/>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="47" t="s">
+        <v>76</v>
+      </c>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
       <c r="D242" s="39"/>
@@ -7888,200 +8024,254 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="40"/>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="40">
+        <v>43831</v>
+      </c>
       <c r="B243" s="20"/>
-      <c r="C243" s="13"/>
+      <c r="C243" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D243" s="39"/>
       <c r="E243" s="9"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G243" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H243" s="39"/>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="40"/>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="40">
+        <v>43862</v>
+      </c>
       <c r="B244" s="20"/>
-      <c r="C244" s="13"/>
+      <c r="C244" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D244" s="39"/>
       <c r="E244" s="9"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G244" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H244" s="39"/>
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="40"/>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="40">
+        <v>43891</v>
+      </c>
       <c r="B245" s="20"/>
-      <c r="C245" s="13"/>
+      <c r="C245" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D245" s="39"/>
       <c r="E245" s="9"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G245" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H245" s="39"/>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="40"/>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="40">
+        <v>43922</v>
+      </c>
       <c r="B246" s="20"/>
-      <c r="C246" s="13"/>
+      <c r="C246" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D246" s="39"/>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G246" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H246" s="39"/>
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="40"/>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="40">
+        <v>43952</v>
+      </c>
       <c r="B247" s="20"/>
-      <c r="C247" s="13"/>
+      <c r="C247" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D247" s="39"/>
       <c r="E247" s="9"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G247" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H247" s="39"/>
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="40"/>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="40">
+        <v>43983</v>
+      </c>
       <c r="B248" s="20"/>
-      <c r="C248" s="13"/>
+      <c r="C248" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D248" s="39"/>
       <c r="E248" s="9"/>
       <c r="F248" s="20"/>
-      <c r="G248" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G248" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H248" s="39"/>
       <c r="I248" s="9"/>
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="40"/>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="40">
+        <v>44013</v>
+      </c>
       <c r="B249" s="20"/>
-      <c r="C249" s="13"/>
+      <c r="C249" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D249" s="39"/>
       <c r="E249" s="9"/>
       <c r="F249" s="20"/>
-      <c r="G249" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G249" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H249" s="39"/>
       <c r="I249" s="9"/>
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="40"/>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="40">
+        <v>44044</v>
+      </c>
       <c r="B250" s="20"/>
-      <c r="C250" s="13"/>
+      <c r="C250" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D250" s="39"/>
       <c r="E250" s="9"/>
       <c r="F250" s="20"/>
-      <c r="G250" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G250" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H250" s="39"/>
       <c r="I250" s="9"/>
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="40"/>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="40">
+        <v>44075</v>
+      </c>
       <c r="B251" s="20"/>
-      <c r="C251" s="13"/>
+      <c r="C251" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D251" s="39"/>
       <c r="E251" s="9"/>
       <c r="F251" s="20"/>
-      <c r="G251" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G251" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H251" s="39"/>
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="40"/>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="40">
+        <v>44105</v>
+      </c>
       <c r="B252" s="20"/>
-      <c r="C252" s="13"/>
+      <c r="C252" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D252" s="39"/>
       <c r="E252" s="9"/>
       <c r="F252" s="20"/>
-      <c r="G252" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G252" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H252" s="39"/>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="40"/>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="40">
+        <v>44136</v>
+      </c>
       <c r="B253" s="20"/>
-      <c r="C253" s="13"/>
+      <c r="C253" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D253" s="39"/>
       <c r="E253" s="9"/>
       <c r="F253" s="20"/>
-      <c r="G253" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G253" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H253" s="39"/>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="40"/>
-      <c r="B254" s="20"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="39"/>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B254" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C254" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D254" s="39">
+        <v>5</v>
+      </c>
       <c r="E254" s="9"/>
       <c r="F254" s="20"/>
-      <c r="G254" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G254" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H254" s="39"/>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="40"/>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="47" t="s">
+        <v>77</v>
+      </c>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
       <c r="D255" s="39"/>
@@ -8096,200 +8286,254 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="40"/>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="40">
+        <v>44197</v>
+      </c>
       <c r="B256" s="20"/>
-      <c r="C256" s="13"/>
+      <c r="C256" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D256" s="39"/>
       <c r="E256" s="9"/>
       <c r="F256" s="20"/>
-      <c r="G256" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G256" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H256" s="39"/>
       <c r="I256" s="9"/>
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="40"/>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="40">
+        <v>44228</v>
+      </c>
       <c r="B257" s="20"/>
-      <c r="C257" s="13"/>
+      <c r="C257" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D257" s="39"/>
       <c r="E257" s="9"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G257" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H257" s="39"/>
       <c r="I257" s="9"/>
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="40"/>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="40">
+        <v>44256</v>
+      </c>
       <c r="B258" s="20"/>
-      <c r="C258" s="13"/>
+      <c r="C258" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D258" s="39"/>
       <c r="E258" s="9"/>
       <c r="F258" s="20"/>
-      <c r="G258" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G258" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H258" s="39"/>
       <c r="I258" s="9"/>
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="40"/>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="40">
+        <v>44287</v>
+      </c>
       <c r="B259" s="20"/>
-      <c r="C259" s="13"/>
+      <c r="C259" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D259" s="39"/>
       <c r="E259" s="9"/>
       <c r="F259" s="20"/>
-      <c r="G259" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G259" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H259" s="39"/>
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="40"/>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="40">
+        <v>44317</v>
+      </c>
       <c r="B260" s="20"/>
-      <c r="C260" s="13"/>
+      <c r="C260" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D260" s="39"/>
       <c r="E260" s="9"/>
       <c r="F260" s="20"/>
-      <c r="G260" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G260" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H260" s="39"/>
       <c r="I260" s="9"/>
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="40"/>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="40">
+        <v>44348</v>
+      </c>
       <c r="B261" s="20"/>
-      <c r="C261" s="13"/>
+      <c r="C261" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D261" s="39"/>
       <c r="E261" s="9"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G261" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H261" s="39"/>
       <c r="I261" s="9"/>
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="40"/>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="40">
+        <v>44378</v>
+      </c>
       <c r="B262" s="20"/>
-      <c r="C262" s="13"/>
+      <c r="C262" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D262" s="39"/>
       <c r="E262" s="9"/>
       <c r="F262" s="20"/>
-      <c r="G262" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G262" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H262" s="39"/>
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="40"/>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="40">
+        <v>44409</v>
+      </c>
       <c r="B263" s="20"/>
-      <c r="C263" s="13"/>
+      <c r="C263" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D263" s="39"/>
       <c r="E263" s="9"/>
       <c r="F263" s="20"/>
-      <c r="G263" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G263" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H263" s="39"/>
       <c r="I263" s="9"/>
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="40"/>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="40">
+        <v>44440</v>
+      </c>
       <c r="B264" s="20"/>
-      <c r="C264" s="13"/>
+      <c r="C264" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D264" s="39"/>
       <c r="E264" s="9"/>
       <c r="F264" s="20"/>
-      <c r="G264" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G264" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H264" s="39"/>
       <c r="I264" s="9"/>
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="40"/>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="40">
+        <v>44470</v>
+      </c>
       <c r="B265" s="20"/>
-      <c r="C265" s="13"/>
+      <c r="C265" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D265" s="39"/>
       <c r="E265" s="9"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G265" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H265" s="39"/>
       <c r="I265" s="9"/>
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="40"/>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" s="40">
+        <v>44501</v>
+      </c>
       <c r="B266" s="20"/>
-      <c r="C266" s="13"/>
+      <c r="C266" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D266" s="39"/>
       <c r="E266" s="9"/>
       <c r="F266" s="20"/>
-      <c r="G266" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G266" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H266" s="39"/>
       <c r="I266" s="9"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="40"/>
-      <c r="B267" s="20"/>
-      <c r="C267" s="13"/>
-      <c r="D267" s="39"/>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B267" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C267" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D267" s="39">
+        <v>5</v>
+      </c>
       <c r="E267" s="9"/>
       <c r="F267" s="20"/>
-      <c r="G267" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G267" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H267" s="39"/>
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="40"/>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" s="47" t="s">
+        <v>78</v>
+      </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
       <c r="D268" s="39"/>
@@ -8304,165 +8548,545 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="40"/>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269" s="40">
+        <v>44562</v>
+      </c>
       <c r="B269" s="20"/>
-      <c r="C269" s="13"/>
+      <c r="C269" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D269" s="39"/>
       <c r="E269" s="9"/>
       <c r="F269" s="20"/>
-      <c r="G269" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G269" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H269" s="39"/>
       <c r="I269" s="9"/>
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="40"/>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270" s="40">
+        <v>44593</v>
+      </c>
       <c r="B270" s="20"/>
-      <c r="C270" s="13"/>
+      <c r="C270" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D270" s="39"/>
       <c r="E270" s="9"/>
       <c r="F270" s="20"/>
-      <c r="G270" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G270" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H270" s="39"/>
       <c r="I270" s="9"/>
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="40"/>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" s="40">
+        <v>44621</v>
+      </c>
       <c r="B271" s="20"/>
-      <c r="C271" s="13"/>
+      <c r="C271" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D271" s="39"/>
       <c r="E271" s="9"/>
       <c r="F271" s="20"/>
-      <c r="G271" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G271" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H271" s="39"/>
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="40"/>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" s="40">
+        <v>44652</v>
+      </c>
       <c r="B272" s="20"/>
-      <c r="C272" s="13"/>
+      <c r="C272" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D272" s="39"/>
       <c r="E272" s="9"/>
       <c r="F272" s="20"/>
-      <c r="G272" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G272" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H272" s="39"/>
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="40"/>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" s="40">
+        <v>44682</v>
+      </c>
       <c r="B273" s="20"/>
-      <c r="C273" s="13"/>
+      <c r="C273" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D273" s="39"/>
       <c r="E273" s="9"/>
       <c r="F273" s="20"/>
-      <c r="G273" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G273" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H273" s="39"/>
       <c r="I273" s="9"/>
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="40"/>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" s="40">
+        <v>44713</v>
+      </c>
       <c r="B274" s="20"/>
-      <c r="C274" s="13"/>
+      <c r="C274" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D274" s="39"/>
       <c r="E274" s="9"/>
       <c r="F274" s="20"/>
-      <c r="G274" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G274" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H274" s="39"/>
       <c r="I274" s="9"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="40"/>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" s="40">
+        <v>44743</v>
+      </c>
       <c r="B275" s="20"/>
-      <c r="C275" s="13"/>
+      <c r="C275" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D275" s="39"/>
       <c r="E275" s="9"/>
       <c r="F275" s="20"/>
-      <c r="G275" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G275" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H275" s="39"/>
       <c r="I275" s="9"/>
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="40"/>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" s="40">
+        <v>44774</v>
+      </c>
       <c r="B276" s="20"/>
-      <c r="C276" s="13"/>
+      <c r="C276" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D276" s="39"/>
       <c r="E276" s="9"/>
       <c r="F276" s="20"/>
-      <c r="G276" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G276" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H276" s="39"/>
       <c r="I276" s="9"/>
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="40"/>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="40">
+        <v>44805</v>
+      </c>
       <c r="B277" s="20"/>
-      <c r="C277" s="13"/>
+      <c r="C277" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D277" s="39"/>
       <c r="E277" s="9"/>
       <c r="F277" s="20"/>
-      <c r="G277" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G277" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H277" s="39"/>
       <c r="I277" s="9"/>
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="41"/>
-      <c r="B278" s="15"/>
-      <c r="C278" s="42"/>
-      <c r="D278" s="43"/>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B278" s="20"/>
+      <c r="C278" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D278" s="39"/>
       <c r="E278" s="9"/>
-      <c r="F278" s="15"/>
-      <c r="G278" s="42" t="str">
+      <c r="F278" s="20"/>
+      <c r="G278" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H278" s="39"/>
+      <c r="I278" s="9"/>
+      <c r="J278" s="11"/>
+      <c r="K278" s="20"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B279" s="15"/>
+      <c r="C279" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D279" s="42"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="15"/>
+      <c r="G279" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H279" s="42"/>
+      <c r="I279" s="9"/>
+      <c r="J279" s="12"/>
+      <c r="K279" s="15"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B280" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C280" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D280" s="39">
+        <v>5</v>
+      </c>
+      <c r="E280" s="9"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H280" s="39"/>
+      <c r="I280" s="9"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="20"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A281" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B281" s="20"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="39"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="20"/>
+      <c r="G281" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H278" s="43"/>
-      <c r="I278" s="9"/>
-      <c r="J278" s="12"/>
-      <c r="K278" s="15"/>
+      <c r="H281" s="39"/>
+      <c r="I281" s="9"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="20"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B282" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C282" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D282" s="39"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="20"/>
+      <c r="G282" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H282" s="39"/>
+      <c r="I282" s="9"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B283" s="20"/>
+      <c r="C283" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D283" s="39"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="20"/>
+      <c r="G283" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H283" s="39"/>
+      <c r="I283" s="9"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="20"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B284" s="20"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="39"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="20"/>
+      <c r="G284" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H284" s="39"/>
+      <c r="I284" s="9"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="20"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B285" s="20"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="39"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="20"/>
+      <c r="G285" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H285" s="39"/>
+      <c r="I285" s="9"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="20"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B286" s="20"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="39"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="20"/>
+      <c r="G286" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H286" s="39"/>
+      <c r="I286" s="9"/>
+      <c r="J286" s="11"/>
+      <c r="K286" s="20"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B287" s="20"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="39"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="20"/>
+      <c r="G287" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H287" s="39"/>
+      <c r="I287" s="9"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="20"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B288" s="20"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="39"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="20"/>
+      <c r="G288" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H288" s="39"/>
+      <c r="I288" s="9"/>
+      <c r="J288" s="11"/>
+      <c r="K288" s="20"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B289" s="20"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="39"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="20"/>
+      <c r="G289" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H289" s="39"/>
+      <c r="I289" s="9"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="20"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B290" s="20"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="39"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="20"/>
+      <c r="G290" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H290" s="39"/>
+      <c r="I290" s="9"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="20"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B291" s="20"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="39"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="20"/>
+      <c r="G291" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H291" s="39"/>
+      <c r="I291" s="9"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="20"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B292" s="20"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="39"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="20"/>
+      <c r="G292" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H292" s="39"/>
+      <c r="I292" s="9"/>
+      <c r="J292" s="11"/>
+      <c r="K292" s="20"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B293" s="20"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="39"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="20"/>
+      <c r="G293" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H293" s="39"/>
+      <c r="I293" s="9"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="20"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A294" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B294" s="20"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="39"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="20"/>
+      <c r="G294" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H294" s="39"/>
+      <c r="I294" s="9"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="20"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B295" s="20"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="39"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="20"/>
+      <c r="G295" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H295" s="39"/>
+      <c r="I295" s="9"/>
+      <c r="J295" s="11"/>
+      <c r="K295" s="20"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B296" s="20"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="39"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="20"/>
+      <c r="G296" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H296" s="39"/>
+      <c r="I296" s="9"/>
+      <c r="J296" s="11"/>
+      <c r="K296" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8478,7 +9102,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -8510,37 +9134,37 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8556,7 +9180,7 @@
       <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -8565,41 +9189,43 @@
       <c r="K2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
-      <c r="G3" s="47">
+      <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="L3" s="44">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8612,15 +9238,15 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8633,7 +9259,7 @@
       <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="43"/>
       <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
@@ -8647,7 +9273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8673,7 +9299,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8699,7 +9325,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8725,7 +9351,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8751,7 +9377,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8777,7 +9403,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8803,7 +9429,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8829,7 +9455,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8849,7 +9475,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8869,7 +9495,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8889,7 +9515,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8910,7 +9536,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8931,7 +9557,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8952,7 +9578,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8973,7 +9599,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8994,7 +9620,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9015,7 +9641,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9036,7 +9662,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9057,7 +9683,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9078,7 +9704,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9099,7 +9725,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9120,7 +9746,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9141,7 +9767,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9162,7 +9788,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9183,7 +9809,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9204,7 +9830,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9225,7 +9851,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9246,7 +9872,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9267,7 +9893,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9288,7 +9914,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9309,7 +9935,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9318,7 +9944,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9327,7 +9953,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9336,7 +9962,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9345,7 +9971,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9354,7 +9980,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9363,7 +9989,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9372,7 +9998,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9381,7 +10007,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9390,7 +10016,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9399,7 +10025,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9408,7 +10034,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9417,7 +10043,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9426,7 +10052,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9435,7 +10061,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9444,7 +10070,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9453,7 +10079,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9462,7 +10088,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9471,7 +10097,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9480,7 +10106,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9489,7 +10115,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9498,7 +10124,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9507,7 +10133,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9516,7 +10142,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9525,7 +10151,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9534,7 +10160,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9543,7 +10169,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9552,7 +10178,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9561,7 +10187,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9570,7 +10196,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
